--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3796087.734069563</v>
+        <v>3789070.71917785</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,16 +667,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>399.9008441803032</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>128.2096926537237</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>57.74455817980855</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>96.21072710841959</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>284.56151600587</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>155.9407888106546</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>171.7498680634317</v>
       </c>
     </row>
     <row r="8">
@@ -1138,10 +1138,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>240.729119577843</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1150,10 +1150,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>111.682625707652</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>25.31590541686246</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>205.3743261851594</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274088</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>31.42218700821035</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417104</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527407</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>28.25333915917232</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1824,16 +1824,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385018</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>141.7377288984302</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2247,16 +2247,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>7.429979013830478</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2301,10 +2301,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>75.09050583974575</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>118.4898845065123</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498005</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>154.9204366372386</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2772,16 +2772,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>111.5131035525858</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>44.74370058857917</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3009,10 +3009,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,19 +3240,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>112.4819596115769</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.0494695725788</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3486,10 +3486,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274081</v>
+        <v>81.77913505273987</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,19 +3556,19 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>118.7928232808923</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>111.7102965283837</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4140,16 +4140,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>169.9068027896051</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1335.58524627281</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="C2" t="n">
-        <v>966.622729332398</v>
+        <v>1215.860583733539</v>
       </c>
       <c r="D2" t="n">
-        <v>608.3570307256475</v>
+        <v>857.5948851267888</v>
       </c>
       <c r="E2" t="n">
-        <v>608.3570307256475</v>
+        <v>471.8066325285445</v>
       </c>
       <c r="F2" t="n">
-        <v>197.37112593604</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>183.4477218746309</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2112.324418312743</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W2" t="n">
-        <v>2112.324418312743</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X2" t="n">
-        <v>2112.324418312743</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y2" t="n">
-        <v>1722.185086336931</v>
+        <v>1584.823100673951</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,13 +4412,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>380.6275373157412</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>211.6913543878343</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>211.6913543878343</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>211.6913543878343</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>380.6275373157412</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>380.6275373157412</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>380.6275373157412</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1289.01781586839</v>
+        <v>1865.381229508783</v>
       </c>
       <c r="C5" t="n">
-        <v>1191.835263233623</v>
+        <v>1496.418712568371</v>
       </c>
       <c r="D5" t="n">
-        <v>1191.835263233623</v>
+        <v>1138.15301396162</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>752.3647613633761</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>341.3788565737686</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>1662.48357412947</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X5" t="n">
-        <v>1289.01781586839</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y5" t="n">
-        <v>1289.01781586839</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4661,10 +4661,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>257.1154545468206</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1282.700798147047</v>
+        <v>686.9351304176948</v>
       </c>
       <c r="C8" t="n">
-        <v>913.7382812066351</v>
+        <v>317.9726134772831</v>
       </c>
       <c r="D8" t="n">
-        <v>555.4725825998845</v>
+        <v>317.9726134772831</v>
       </c>
       <c r="E8" t="n">
-        <v>555.4725825998845</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519315</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W8" t="n">
-        <v>1782.111371249201</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="X8" t="n">
-        <v>1669.300638211168</v>
+        <v>1463.674302457628</v>
       </c>
       <c r="Y8" t="n">
-        <v>1669.300638211168</v>
+        <v>1073.534970481817</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4880,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4904,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>546.4805193761946</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>377.5443364482877</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>227.427697035952</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>79.51460345355886</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>261.3917961488083</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>261.3917961488083</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W10" t="n">
-        <v>261.3917961488083</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X10" t="n">
-        <v>261.3917961488083</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="11">
@@ -5023,16 +5023,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
@@ -5041,10 +5041,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5068,22 +5068,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>498.9056400965599</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L12" t="n">
-        <v>745.6707680030239</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M12" t="n">
-        <v>1514.038914395485</v>
+        <v>841.8631140141287</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059518</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>2315.738453580939</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5202,19 +5202,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V13" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W13" t="n">
-        <v>531.3977182706318</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5257,19 +5257,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5278,10 +5278,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5296,7 +5296,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5305,22 +5305,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5357,19 +5357,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766202</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.683698656582</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1433.546326320615</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
         <v>1808.163466324677</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>275.872457296028</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>275.872457296028</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>125.7558178836922</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>125.7558178836922</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>125.7558178836922</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>125.7558178836922</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>125.7558178836922</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5472,16 +5472,16 @@
         <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>786.0822064765186</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>496.665036439558</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X16" t="n">
-        <v>496.665036439558</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>275.872457296028</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5515,7 +5515,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514082</v>
@@ -5533,10 +5533,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>2771.824048372322</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>3079.144181652284</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>3583.957287518663</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>4253.421048821322</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>4773.721670557069</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>670.514436100302</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1187.92115703528</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V19" t="n">
-        <v>1187.92115703528</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W19" t="n">
-        <v>898.5039869983193</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X19" t="n">
-        <v>670.514436100302</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y19" t="n">
-        <v>670.514436100302</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5734,28 +5734,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5764,13 +5764,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5831,22 +5831,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>485.404702608941</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>732.169830515405</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1039.489963795367</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>423.3154508994214</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>423.3154508994214</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>423.3154508994214</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1187.92115703528</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U22" t="n">
-        <v>898.7925182488384</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>644.1080300429516</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>644.1080300429516</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>644.1080300429516</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>423.3154508994214</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822457</v>
@@ -5992,7 +5992,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6004,37 +6004,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>2525.058920465858</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>2771.824048372322</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>3079.144181652284</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>3883.555759916434</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>4553.019521219094</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>4763.091658459769</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>489.1545025205813</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>489.1545025205813</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>489.1545025205813</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>341.2414089381882</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6150,13 +6150,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1187.92115703528</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U25" t="n">
-        <v>898.7925182488384</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>898.7925182488384</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>898.7925182488384</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>670.8029673508211</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>670.8029673508211</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155897</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6259,19 +6259,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>2013.406634128704</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>208.7516828383384</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="C28" t="n">
-        <v>208.7516828383384</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="D28" t="n">
         <v>208.7516828383384</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U28" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V28" t="n">
-        <v>1020.446367141521</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W28" t="n">
-        <v>731.0291971045608</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="X28" t="n">
-        <v>503.0396462065435</v>
+        <v>736.1461909267684</v>
       </c>
       <c r="Y28" t="n">
-        <v>390.400147668578</v>
+        <v>515.3536117832383</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6451,22 +6451,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155889</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6475,40 +6475,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>303.4575213834695</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>550.2226492899335</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>857.5427825698952</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>712.8170085027681</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>712.8170085027681</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>986.0022165609664</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>986.0022165609664</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>758.0126656629491</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>758.0126656629491</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6688,19 +6688,19 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514085</v>
@@ -6727,10 +6727,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6779,25 +6779,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>953.6472828615138</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>714.6010158349783</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>545.6648329070714</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
         <v>97.21709146028584</v>
@@ -6888,22 +6888,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1185.37811945166</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>896.249480665218</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>896.249480665218</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>896.249480665218</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>896.249480665218</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>896.249480665218</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6928,43 +6928,43 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>2375.989236263799</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>2786.879505108312</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>3033.644633014776</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>3484.747546292012</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>4289.159124556163</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>4568.69918977486</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>4773.72167055707</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3609.573402368733</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>3609.573402368733</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>3609.573402368733</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>3609.573402368733</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3609.573402368733</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3609.573402368733</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4558.820409401796</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>4335.034994191302</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>4045.90635540486</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>3791.221867198973</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>3791.221867198973</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>3791.221867198973</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>3791.221867198973</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7153,70 +7153,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805461</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822453</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7250,31 +7250,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1427.741252113634</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1757.603879777666</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>714.6010158349783</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>545.6648329070714</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>395.5481934947357</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1378.923519769122</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1378.923519769122</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1378.923519769122</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>1124.239031563235</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>1124.239031563235</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>896.249480665218</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>896.249480665218</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7396,40 +7396,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7447,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>526.9050513325897</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>357.9688684046828</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>357.9688684046828</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>210.0557748222897</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>210.0557748222897</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7599,22 +7599,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1298.996260473455</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>1044.311772267568</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>754.894602230607</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>526.9050513325897</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>526.9050513325897</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,31 +7627,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514078</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7660,7 +7660,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7730,22 +7730,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1024.771599890051</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>562.3990000507114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>562.3990000507114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>954.8146123150548</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>783.1915791942415</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>562.3990000507114</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8309,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,16 +8531,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>327.4218609627882</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093296</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>87.16935584025435</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>15.83804904622909</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>96.03744927814699</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9254,16 +9254,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>176.7176547498447</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>199.6230805871087</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9491,19 +9491,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9728,19 +9728,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>5.100663089359273</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9895,7 +9895,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>38.86002301949884</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>15.83804904622846</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10202,19 +10202,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,16 +10427,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>158.8724419039329</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720745</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10673,22 +10673,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>145.2351313103786</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711655</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,28 +10904,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>76.43196988338491</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11150,19 +11150,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>230.7151863772034</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11378,10 +11378,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>369.089388049373</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11390,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23466,7 +23466,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>194.2874683808268</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23658,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23673,7 +23673,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>82.16590630509967</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>25.50909220019759</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24135,16 +24135,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>139.0039836327387</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24372,13 +24372,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>70.3305421831855</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518769</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>24.9115435446987</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>107.071549799509</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>135.0882795933581</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,7 +25092,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25128,19 +25128,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>109.0656014468124</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25329,7 +25329,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>8.87134041102442</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,7 +25566,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25599,19 +25599,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>79.12798670271097</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25788,19 +25788,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>54.78327193499385</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25839,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,16 +26028,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26073,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>55.80285259943204</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>666584.7624635147</v>
+        <v>666584.7624635146</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>666584.7624635146</v>
+        <v>666584.7624635147</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>666584.7624635146</v>
+        <v>666584.7624635147</v>
       </c>
     </row>
     <row r="11">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>666584.7624635147</v>
+        <v>666584.7624635146</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="C2" t="n">
+        <v>759463.6371244623</v>
+      </c>
+      <c r="D2" t="n">
         <v>759463.6371244624</v>
       </c>
-      <c r="D2" t="n">
-        <v>759463.6371244623</v>
-      </c>
       <c r="E2" t="n">
-        <v>723403.7605147619</v>
+        <v>723403.7605147616</v>
       </c>
       <c r="F2" t="n">
-        <v>723403.7605147619</v>
+        <v>723403.7605147611</v>
       </c>
       <c r="G2" t="n">
-        <v>723403.7605147617</v>
+        <v>723403.7605147613</v>
       </c>
       <c r="H2" t="n">
+        <v>723403.760514761</v>
+      </c>
+      <c r="I2" t="n">
         <v>723403.7605147613</v>
-      </c>
-      <c r="I2" t="n">
-        <v>723403.7605147616</v>
       </c>
       <c r="J2" t="n">
         <v>723403.7605147612</v>
       </c>
       <c r="K2" t="n">
-        <v>723403.7605147616</v>
+        <v>723403.7605147611</v>
       </c>
       <c r="L2" t="n">
+        <v>723403.7605147612</v>
+      </c>
+      <c r="M2" t="n">
+        <v>723403.7605147611</v>
+      </c>
+      <c r="N2" t="n">
         <v>723403.7605147613</v>
       </c>
-      <c r="M2" t="n">
-        <v>723403.7605147614</v>
-      </c>
-      <c r="N2" t="n">
-        <v>723403.7605147618</v>
-      </c>
       <c r="O2" t="n">
-        <v>723403.7605147617</v>
+        <v>723403.760514761</v>
       </c>
       <c r="P2" t="n">
         <v>723403.7605147613</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
-        <v>5.148837678054155e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.567329602243263e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925927</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,34 +26426,34 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
+        <v>22174.60758687076</v>
+      </c>
+      <c r="F4" t="n">
         <v>22174.60758687071</v>
       </c>
-      <c r="F4" t="n">
-        <v>22174.60758687079</v>
-      </c>
       <c r="G4" t="n">
-        <v>22174.60758687073</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="J4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.60758687067</v>
+        <v>22174.60758687076</v>
       </c>
       <c r="O4" t="n">
         <v>22174.60758687071</v>
@@ -26472,43 +26472,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-78996.18794001624</v>
+        <v>-78996.18794001575</v>
       </c>
       <c r="C6" t="n">
-        <v>510971.6912745285</v>
+        <v>510971.6912745284</v>
       </c>
       <c r="D6" t="n">
-        <v>510971.6912745285</v>
+        <v>510971.6912745286</v>
       </c>
       <c r="E6" t="n">
-        <v>84081.79050227853</v>
+        <v>83107.19924255663</v>
       </c>
       <c r="F6" t="n">
-        <v>609241.8269791745</v>
+        <v>608267.2357194521</v>
       </c>
       <c r="G6" t="n">
-        <v>609241.8269791743</v>
+        <v>608267.2357194524</v>
       </c>
       <c r="H6" t="n">
-        <v>609241.826979174</v>
+        <v>608267.235719452</v>
       </c>
       <c r="I6" t="n">
-        <v>609241.8269791743</v>
+        <v>608267.2357194521</v>
       </c>
       <c r="J6" t="n">
-        <v>432818.6077865809</v>
+        <v>431844.0165268596</v>
       </c>
       <c r="K6" t="n">
-        <v>609241.8269791743</v>
+        <v>608267.2357194521</v>
       </c>
       <c r="L6" t="n">
-        <v>609241.826979174</v>
+        <v>608267.2357194523</v>
       </c>
       <c r="M6" t="n">
-        <v>474440.811745337</v>
+        <v>473466.2204856151</v>
       </c>
       <c r="N6" t="n">
-        <v>609241.8269791745</v>
+        <v>608267.2357194523</v>
       </c>
       <c r="O6" t="n">
-        <v>609241.8269791744</v>
+        <v>608267.235719452</v>
       </c>
       <c r="P6" t="n">
-        <v>609241.826979174</v>
+        <v>608267.2357194524</v>
       </c>
     </row>
   </sheetData>
@@ -26697,10 +26697,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="D3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26755,31 +26755,31 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26828,7 +26828,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
         <v>1215.213643253573</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,16 +27387,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.975201561408198</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>195.7130801106334</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27435,19 +27435,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,13 +27593,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>228.7784401567824</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>269.062164662588</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>129.222654014925</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>130.3410854313231</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>46.83478528866308</v>
       </c>
     </row>
     <row r="8">
@@ -27858,10 +27858,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>141.2012504944188</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>258.048474970817</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,7 +28067,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>13.21032716693534</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.028473857802275e-12</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28563,16 +28563,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -30243,7 +30243,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>8.952838470577262e-13</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31761,40 +31761,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,10 +31834,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31846,7 +31846,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31855,10 +31855,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31934,7 +31934,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31946,10 +31946,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,10 +32700,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,37 +32712,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32818,7 +32818,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35257,19 +35257,19 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856235</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
-        <v>237.7447944281936</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>222.9314639777537</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
@@ -35740,7 +35740,7 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
@@ -35974,16 +35974,16 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>509.9122281478575</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>350.198519175048</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>212.194078020884</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36615,10 +36615,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>321.223725260607</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>166.4134876341677</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>408.1301468599572</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415086</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37393,19 +37393,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>455.6595083608449</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303338</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,28 +37624,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>358.7956721244931</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37867,19 +37867,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>563.9097597752163</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>618.3470930053974</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3789070.71917785</v>
+        <v>3794009.982026882</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>399.9008441803032</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>190.4871567452434</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,10 +718,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -910,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>284.56151600587</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>9.709622269964724</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1059,7 +1059,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>101.780687729549</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>171.7498680634317</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,13 +1138,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>240.729119577843</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>325.2557485598865</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>30.60408762095418</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>25.31590541686246</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.287249111317</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>18.13571651166056</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>190.7955476484028</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>122.65197883716</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>118.4898845065123</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>206.8064269214864</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498005</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>154.9204366372386</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>139.5875948960336</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -2769,19 +2769,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -3003,13 +3003,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>169.7438101404424</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3243,7 +3243,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338502</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3483,7 +3483,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>169.7438101404423</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505273987</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3720,10 +3720,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>30.44016618184749</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4194,7 +4194,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>169.7438101404424</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1584.823100673951</v>
+        <v>1882.054803223514</v>
       </c>
       <c r="C2" t="n">
-        <v>1215.860583733539</v>
+        <v>1882.054803223514</v>
       </c>
       <c r="D2" t="n">
-        <v>857.5948851267888</v>
+        <v>1523.789104616764</v>
       </c>
       <c r="E2" t="n">
-        <v>471.8066325285445</v>
+        <v>1138.000852018519</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>727.0149472289118</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4366,16 +4366,16 @@
         <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205145</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>1958.288858935031</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X2" t="n">
-        <v>1584.823100673951</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y2" t="n">
-        <v>1584.823100673951</v>
+        <v>2268.654643287636</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1865.381229508783</v>
+        <v>1919.063478780785</v>
       </c>
       <c r="C5" t="n">
-        <v>1496.418712568371</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="D5" t="n">
-        <v>1138.15301396162</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E5" t="n">
-        <v>752.3647613633761</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>341.3788565737686</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2687.341391755632</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2511.163904069802</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2292.529237041865</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2292.529237041865</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2292.529237041865</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>2292.529237041865</v>
       </c>
       <c r="X5" t="n">
-        <v>2642.120401548716</v>
+        <v>1919.063478780785</v>
       </c>
       <c r="Y5" t="n">
-        <v>2251.981069572904</v>
+        <v>1919.063478780785</v>
       </c>
     </row>
     <row r="6">
@@ -4643,22 +4643,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.9958041606071</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>554.6442689908469</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>686.9351304176948</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>317.9726134772831</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>317.9726134772831</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2189.908715988822</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1837.140060718708</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1463.674302457628</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1073.534970481817</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4880,16 +4880,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761946</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>377.5443364482877</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>227.427697035952</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>79.51460345355886</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5026,22 +5026,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
@@ -5059,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5068,22 +5068,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5123,19 +5123,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277032</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341671</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>841.8631140141287</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1646.274692278279</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2315.738453580939</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5202,19 +5202,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1382.222354598086</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387592</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011506</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952637</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>825.7091345600652</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>597.7195836620479</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
     </row>
     <row r="14">
@@ -5272,7 +5272,7 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>233.7852434110091</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>644.6755122555218</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619858</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1306.193495155475</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706318</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W16" t="n">
-        <v>241.9805482336712</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5703,22 +5703,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1271.749344574921</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>1017.064856369034</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>727.647686332073</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X19" t="n">
-        <v>499.6581354340557</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y19" t="n">
-        <v>278.8655562905255</v>
+        <v>221.1079791745888</v>
       </c>
     </row>
     <row r="20">
@@ -5755,22 +5755,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5980,10 +5980,10 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805464</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -5992,22 +5992,22 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6068,7 +6068,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
         <v>674.428562457161</v>
@@ -6150,10 +6150,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
         <v>779.0639759471194</v>
@@ -6174,10 +6174,10 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1379.229518531123</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
         <v>1090.100879744681</v>
@@ -6214,7 +6214,7 @@
         <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155897</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6226,10 +6226,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6241,13 +6241,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6293,13 +6293,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
@@ -6308,19 +6308,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>358.8683222506741</v>
+        <v>349.7492534403925</v>
       </c>
       <c r="C28" t="n">
-        <v>358.8683222506741</v>
+        <v>349.7492534403925</v>
       </c>
       <c r="D28" t="n">
-        <v>208.7516828383384</v>
+        <v>349.7492534403925</v>
       </c>
       <c r="E28" t="n">
-        <v>208.7516828383384</v>
+        <v>349.7492534403925</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383384</v>
+        <v>349.7492534403925</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>349.7492534403925</v>
       </c>
       <c r="H28" t="n">
         <v>208.7516828383384</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U28" t="n">
-        <v>964.1357418247858</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V28" t="n">
-        <v>964.1357418247858</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W28" t="n">
-        <v>964.1357418247858</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="X28" t="n">
-        <v>736.1461909267684</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="Y28" t="n">
-        <v>515.3536117832383</v>
+        <v>531.3977182706323</v>
       </c>
     </row>
     <row r="29">
@@ -6454,10 +6454,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028562</v>
@@ -6466,7 +6466,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6481,10 +6481,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6651,10 +6651,10 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
         <v>614.6238123952637</v>
@@ -6691,40 +6691,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6891,19 +6891,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6931,13 +6931,13 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514083</v>
@@ -6955,16 +6955,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -7013,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>268.6754855415407</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805461</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822453</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7198,13 +7198,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>755.3345638685919</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
     </row>
     <row r="41">
@@ -7393,43 +7393,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7596,10 +7596,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
         <v>869.3083006011506</v>
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7642,19 +7642,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7681,19 +7681,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7833,22 +7833,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y46" t="n">
         <v>97.21709146028584</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8309,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8531,16 +8531,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8777,22 +8777,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>15.83804904622909</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>96.03744927814714</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>268.3872818249304</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23703,25 +23703,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>30.75201340998649</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>57.18000134477732</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23943,10 +23943,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0576765518769</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>79.43092547709094</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.9115435446987</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,7 +24618,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>9.326233471502519</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24891,13 +24891,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>82.39383318338562</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>48.84084321165253</v>
       </c>
     </row>
     <row r="38">
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>256.0828321547435</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>82.39383318338562</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>666584.7624635146</v>
+        <v>666584.7624635147</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>666584.7624635147</v>
+        <v>666584.7624635146</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>666584.7624635147</v>
+        <v>666584.7624635146</v>
       </c>
     </row>
     <row r="11">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="C2" t="n">
         <v>759463.6371244623</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="E2" t="n">
         <v>723403.7605147616</v>
       </c>
       <c r="F2" t="n">
+        <v>723403.7605147616</v>
+      </c>
+      <c r="G2" t="n">
         <v>723403.7605147611</v>
-      </c>
-      <c r="G2" t="n">
-        <v>723403.7605147613</v>
       </c>
       <c r="H2" t="n">
         <v>723403.760514761</v>
@@ -26337,22 +26337,22 @@
         <v>723403.7605147613</v>
       </c>
       <c r="J2" t="n">
-        <v>723403.7605147612</v>
+        <v>723403.7605147614</v>
       </c>
       <c r="K2" t="n">
+        <v>723403.760514761</v>
+      </c>
+      <c r="L2" t="n">
         <v>723403.7605147611</v>
-      </c>
-      <c r="L2" t="n">
-        <v>723403.7605147612</v>
       </c>
       <c r="M2" t="n">
         <v>723403.7605147611</v>
       </c>
       <c r="N2" t="n">
+        <v>723403.7605147611</v>
+      </c>
+      <c r="O2" t="n">
         <v>723403.7605147613</v>
-      </c>
-      <c r="O2" t="n">
-        <v>723403.760514761</v>
       </c>
       <c r="P2" t="n">
         <v>723403.7605147613</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.567329602243263e-10</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687076</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
         <v>22174.60758687071</v>
@@ -26438,22 +26438,22 @@
         <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687066</v>
       </c>
       <c r="K4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687067</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.60758687076</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="O4" t="n">
         <v>22174.60758687071</v>
@@ -26472,10 +26472,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26493,25 +26493,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-78996.18794001575</v>
+        <v>-78996.18794001598</v>
       </c>
       <c r="C6" t="n">
-        <v>510971.6912745284</v>
+        <v>510971.6912745285</v>
       </c>
       <c r="D6" t="n">
-        <v>510971.6912745286</v>
+        <v>510971.6912745287</v>
       </c>
       <c r="E6" t="n">
-        <v>83107.19924255663</v>
+        <v>83984.33137630593</v>
       </c>
       <c r="F6" t="n">
-        <v>608267.2357194521</v>
+        <v>609144.3678532022</v>
       </c>
       <c r="G6" t="n">
-        <v>608267.2357194524</v>
+        <v>609144.3678532017</v>
       </c>
       <c r="H6" t="n">
-        <v>608267.235719452</v>
+        <v>609144.3678532016</v>
       </c>
       <c r="I6" t="n">
-        <v>608267.2357194521</v>
+        <v>609144.3678532018</v>
       </c>
       <c r="J6" t="n">
-        <v>431844.0165268596</v>
+        <v>432721.1486606091</v>
       </c>
       <c r="K6" t="n">
-        <v>608267.2357194521</v>
+        <v>609144.3678532017</v>
       </c>
       <c r="L6" t="n">
-        <v>608267.2357194523</v>
+        <v>609144.3678532017</v>
       </c>
       <c r="M6" t="n">
-        <v>473466.2204856151</v>
+        <v>474343.3526193645</v>
       </c>
       <c r="N6" t="n">
-        <v>608267.2357194523</v>
+        <v>609144.3678532017</v>
       </c>
       <c r="O6" t="n">
-        <v>608267.235719452</v>
+        <v>609144.3678532019</v>
       </c>
       <c r="P6" t="n">
-        <v>608267.2357194524</v>
+        <v>609144.3678532019</v>
       </c>
     </row>
   </sheetData>
@@ -26740,13 +26740,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26758,10 +26758,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26776,10 +26776,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.975201561408198</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>223.2970132755516</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,10 +27438,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>129.222654014925</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>44.768780304847</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27779,7 +27779,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>46.83478528866331</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>46.83478528866308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,13 +27858,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>141.2012504944188</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27912,13 +27912,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>149.2278925609831</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>120.1051426060688</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -30039,7 +30039,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-7.379445741767613e-13</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30243,7 +30243,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>8.952838470577262e-13</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31761,40 +31761,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,10 +31834,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31846,7 +31846,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31855,10 +31855,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31934,7 +31934,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31946,10 +31946,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
         <v>34.18755300444946</v>
@@ -32721,13 +32721,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647497</v>
@@ -32742,7 +32742,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32797,7 +32797,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
         <v>464.5362854813463</v>
@@ -32818,7 +32818,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
         <v>45.03122946298631</v>
@@ -32870,10 +32870,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
         <v>234.725964217132</v>
@@ -32882,7 +32882,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
@@ -32894,13 +32894,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35254,19 +35254,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504661</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N12" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>222.9314639777537</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507407</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>137.9476282330538</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35983,7 +35983,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
@@ -36369,19 +36369,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005179</v>
@@ -36448,16 +36448,16 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
@@ -36524,7 +36524,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056037</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.689756130333</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
